--- a/FCIs Monthly.xlsx
+++ b/FCIs Monthly.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7020" firstSheet="14" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Merval - Monthly" sheetId="51" r:id="rId1"/>
@@ -27,13 +27,18 @@
     <sheet name="ST A - Monthly" sheetId="43" r:id="rId18"/>
     <sheet name="Superfondo A - Monthly" sheetId="47" r:id="rId19"/>
     <sheet name="Superfondo B - Monthly" sheetId="49" r:id="rId20"/>
+    <sheet name="Premier B - Monthly" sheetId="54" r:id="rId21"/>
+    <sheet name="Pionero - Monthly" sheetId="55" r:id="rId22"/>
+    <sheet name="Premier A - Monthly" sheetId="56" r:id="rId23"/>
+    <sheet name="DICA - Monthly" sheetId="57" r:id="rId24"/>
+    <sheet name="LEBAC - Monthly" sheetId="58" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -97,12 +102,18 @@
   <si>
     <t>Mid</t>
   </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Yield2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000;\-#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000;\-#,##0.00000"/>
@@ -110,8 +121,9 @@
     <numFmt numFmtId="168" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="169" formatCode="\+#,##0.00%;\-#,##0.00%;#,##0.00%"/>
     <numFmt numFmtId="170" formatCode="\+#,##0.000;\-#,##0.000;#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000;\-#,##0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +156,147 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +315,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -290,12 +626,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -374,10 +873,94 @@
     <xf numFmtId="170" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -14234,7 +14817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A103" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B90" sqref="A90:B90"/>
     </sheetView>
   </sheetViews>
@@ -15496,7 +16079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A115" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -16742,6 +17325,4544 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="34">
+        <v>39721</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1.1853009999999999</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="38">
+        <v>39752</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.756023</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34">
+        <v>39780</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.74021300000000001</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="38">
+        <v>39813</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0.776976</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34">
+        <v>39843</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.76756199999999997</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38">
+        <v>39871</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0.73285</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34">
+        <v>39903</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0.79271199999999997</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38">
+        <v>39933</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0.86615500000000001</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34">
+        <v>39962</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1.0336529999999999</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="38">
+        <v>39994</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1.092997</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34">
+        <v>40025</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1.168371</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="38">
+        <v>40056</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1.2601979999999999</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34">
+        <v>40086</v>
+      </c>
+      <c r="B14" s="35">
+        <v>1.4310039999999999</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="38">
+        <v>40116</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1.4840850000000001</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34">
+        <v>40147</v>
+      </c>
+      <c r="B16" s="35">
+        <v>1.4872970000000001</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="38">
+        <v>40178</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1.620536</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
+        <v>40207</v>
+      </c>
+      <c r="B18" s="35">
+        <v>1.60571</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="38">
+        <v>40235</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1.558478</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34">
+        <v>40268</v>
+      </c>
+      <c r="B20" s="35">
+        <v>1.6751499999999999</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="38">
+        <v>40298</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1.713444</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34">
+        <v>40329</v>
+      </c>
+      <c r="B22" s="35">
+        <v>1.5944100000000001</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="38">
+        <v>40359</v>
+      </c>
+      <c r="B23" s="39">
+        <v>1.604619</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="34">
+        <v>40389</v>
+      </c>
+      <c r="B24" s="35">
+        <v>1.728175</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="38">
+        <v>40421</v>
+      </c>
+      <c r="B25" s="39">
+        <v>1.729571</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34">
+        <v>40451</v>
+      </c>
+      <c r="B26" s="35">
+        <v>1.9276549999999999</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="38">
+        <v>40480</v>
+      </c>
+      <c r="B27" s="39">
+        <v>2.17319</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34">
+        <v>40512</v>
+      </c>
+      <c r="B28" s="35">
+        <v>2.3373050000000002</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="38">
+        <v>40543</v>
+      </c>
+      <c r="B29" s="39">
+        <v>2.4737469999999999</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="34">
+        <v>40574</v>
+      </c>
+      <c r="B30" s="35">
+        <v>2.5069439999999998</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="38">
+        <v>40602</v>
+      </c>
+      <c r="B31" s="39">
+        <v>2.399184</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="34">
+        <v>40633</v>
+      </c>
+      <c r="B32" s="35">
+        <v>2.3333689999999998</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="38">
+        <v>40662</v>
+      </c>
+      <c r="B33" s="39">
+        <v>2.3398699999999999</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="34">
+        <v>40694</v>
+      </c>
+      <c r="B34" s="35">
+        <v>2.2562720000000001</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="38">
+        <v>40724</v>
+      </c>
+      <c r="B35" s="39">
+        <v>2.3092510000000002</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34">
+        <v>40753</v>
+      </c>
+      <c r="B36" s="35">
+        <v>2.2909269999999999</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="38">
+        <v>40786</v>
+      </c>
+      <c r="B37" s="39">
+        <v>2.0627409999999999</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34">
+        <v>40816</v>
+      </c>
+      <c r="B38" s="35">
+        <v>1.763323</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="38">
+        <v>40847</v>
+      </c>
+      <c r="B39" s="39">
+        <v>2.0274230000000002</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34">
+        <v>40877</v>
+      </c>
+      <c r="B40" s="35">
+        <v>1.8173109999999999</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="38">
+        <v>40907</v>
+      </c>
+      <c r="B41" s="39">
+        <v>1.7551680000000001</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34">
+        <v>40939</v>
+      </c>
+      <c r="B42" s="35">
+        <v>1.9445539999999999</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="38">
+        <v>40968</v>
+      </c>
+      <c r="B43" s="39">
+        <v>1.856077</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="34">
+        <v>40998</v>
+      </c>
+      <c r="B44" s="35">
+        <v>1.883345</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="38">
+        <v>41029</v>
+      </c>
+      <c r="B45" s="39">
+        <v>1.6851240000000001</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="34">
+        <v>41060</v>
+      </c>
+      <c r="B46" s="35">
+        <v>1.6631149999999999</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="38">
+        <v>41089</v>
+      </c>
+      <c r="B47" s="39">
+        <v>1.738397</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="34">
+        <v>41121</v>
+      </c>
+      <c r="B48" s="35">
+        <v>1.779522</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="38">
+        <v>41152</v>
+      </c>
+      <c r="B49" s="39">
+        <v>1.781031</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34">
+        <v>41180</v>
+      </c>
+      <c r="B50" s="35">
+        <v>1.794025</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="38">
+        <v>41213</v>
+      </c>
+      <c r="B51" s="39">
+        <v>1.72282</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="34">
+        <v>41243</v>
+      </c>
+      <c r="B52" s="35">
+        <v>1.809029</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="38">
+        <v>41274</v>
+      </c>
+      <c r="B53" s="39">
+        <v>2.089734</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="34">
+        <v>41305</v>
+      </c>
+      <c r="B54" s="35">
+        <v>2.4951759999999998</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="37"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="38">
+        <v>41333</v>
+      </c>
+      <c r="B55" s="39">
+        <v>2.2054999999999998</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="34">
+        <v>41362</v>
+      </c>
+      <c r="B56" s="35">
+        <v>2.4455520000000002</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="38">
+        <v>41394</v>
+      </c>
+      <c r="B57" s="39">
+        <v>2.7931089999999998</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="34">
+        <v>41425</v>
+      </c>
+      <c r="B58" s="35">
+        <v>2.5459200000000002</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="38">
+        <v>41453</v>
+      </c>
+      <c r="B59" s="39">
+        <v>2.1942349999999999</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="34">
+        <v>41486</v>
+      </c>
+      <c r="B60" s="35">
+        <v>2.463565</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="38">
+        <v>41516</v>
+      </c>
+      <c r="B61" s="39">
+        <v>2.897977</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34">
+        <v>41547</v>
+      </c>
+      <c r="B62" s="35">
+        <v>3.4705560000000002</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="38">
+        <v>41578</v>
+      </c>
+      <c r="B63" s="39">
+        <v>3.725562</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="34">
+        <v>41607</v>
+      </c>
+      <c r="B64" s="35">
+        <v>4.1072579999999999</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="38">
+        <v>41639</v>
+      </c>
+      <c r="B65" s="39">
+        <v>3.8723749999999999</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34">
+        <v>41670</v>
+      </c>
+      <c r="B66" s="35">
+        <v>4.3029019999999996</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="38">
+        <v>41698</v>
+      </c>
+      <c r="B67" s="39">
+        <v>4.1005149999999997</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="34">
+        <v>41729</v>
+      </c>
+      <c r="B68" s="35">
+        <v>4.5418500000000002</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="38">
+        <v>41759</v>
+      </c>
+      <c r="B69" s="39">
+        <v>4.8022900000000002</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="34">
+        <v>41789</v>
+      </c>
+      <c r="B70" s="35">
+        <v>5.3865949999999998</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="38">
+        <v>41820</v>
+      </c>
+      <c r="B71" s="39">
+        <v>5.5216719999999997</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="34">
+        <v>41851</v>
+      </c>
+      <c r="B72" s="35">
+        <v>5.7195150000000003</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="38">
+        <v>41880</v>
+      </c>
+      <c r="B73" s="39">
+        <v>6.7248840000000003</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34">
+        <v>41912</v>
+      </c>
+      <c r="B74" s="35">
+        <v>8.5209109999999999</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="38">
+        <v>41943</v>
+      </c>
+      <c r="B75" s="39">
+        <v>7.5389860000000004</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="34">
+        <v>41971</v>
+      </c>
+      <c r="B76" s="35">
+        <v>6.6797029999999999</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="38">
+        <v>42004</v>
+      </c>
+      <c r="B77" s="39">
+        <v>5.8005959999999996</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="41"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="34">
+        <v>42034</v>
+      </c>
+      <c r="B78" s="35">
+        <v>5.8136029999999996</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="37"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="38">
+        <v>42062</v>
+      </c>
+      <c r="B79" s="39">
+        <v>6.5204190000000004</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="34">
+        <v>42094</v>
+      </c>
+      <c r="B80" s="35">
+        <v>7.2315009999999997</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="38">
+        <v>42124</v>
+      </c>
+      <c r="B81" s="39">
+        <v>7.5576910000000002</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="34">
+        <v>42153</v>
+      </c>
+      <c r="B82" s="35">
+        <v>6.824732</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="38">
+        <v>42185</v>
+      </c>
+      <c r="B83" s="39">
+        <v>7.2064060000000003</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="34">
+        <v>42216</v>
+      </c>
+      <c r="B84" s="35">
+        <v>6.7359349999999996</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="38">
+        <v>42247</v>
+      </c>
+      <c r="B85" s="39">
+        <v>6.7264530000000002</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="34">
+        <v>42277</v>
+      </c>
+      <c r="B86" s="35">
+        <v>5.975778</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="38">
+        <v>42307</v>
+      </c>
+      <c r="B87" s="39">
+        <v>7.6746030000000003</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="34">
+        <v>42338</v>
+      </c>
+      <c r="B88" s="35">
+        <v>7.9073609999999999</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="38">
+        <v>42369</v>
+      </c>
+      <c r="B89" s="39">
+        <v>7.2244339999999996</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="41"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="34">
+        <v>42398</v>
+      </c>
+      <c r="B90" s="35">
+        <v>7.1551629999999999</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="38">
+        <v>42429</v>
+      </c>
+      <c r="B91" s="39">
+        <v>8.3003579999999992</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="34">
+        <v>42460</v>
+      </c>
+      <c r="B92" s="35">
+        <v>7.7159199999999997</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="38">
+        <v>42489</v>
+      </c>
+      <c r="B93" s="39">
+        <v>7.9007649999999998</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="34">
+        <v>42521</v>
+      </c>
+      <c r="B94" s="35">
+        <v>7.4799720000000001</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="38">
+        <v>42551</v>
+      </c>
+      <c r="B95" s="39">
+        <v>8.6294299999999993</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="34">
+        <v>42580</v>
+      </c>
+      <c r="B96" s="35">
+        <v>8.9757669999999994</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="38">
+        <v>42613</v>
+      </c>
+      <c r="B97" s="39">
+        <v>8.8470879999999994</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="34">
+        <v>42643</v>
+      </c>
+      <c r="B98" s="35">
+        <v>9.4428889999999992</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="38">
+        <v>42674</v>
+      </c>
+      <c r="B99" s="39">
+        <v>9.9098310000000005</v>
+      </c>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="34">
+        <v>42704</v>
+      </c>
+      <c r="B100" s="35">
+        <v>9.8077529999999999</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="37"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="38">
+        <v>42734</v>
+      </c>
+      <c r="B101" s="39">
+        <v>9.3909409999999998</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="41"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="34">
+        <v>42766</v>
+      </c>
+      <c r="B102" s="35">
+        <v>10.557880000000001</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="38">
+        <v>42794</v>
+      </c>
+      <c r="B103" s="39">
+        <v>10.507367</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="34">
+        <v>42825</v>
+      </c>
+      <c r="B104" s="35">
+        <v>11.101556</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="37"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="38">
+        <v>42853</v>
+      </c>
+      <c r="B105" s="39">
+        <v>11.485901</v>
+      </c>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="34">
+        <v>42886</v>
+      </c>
+      <c r="B106" s="35">
+        <v>12.167012</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="37"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="38">
+        <v>42916</v>
+      </c>
+      <c r="B107" s="39">
+        <v>11.959460999999999</v>
+      </c>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="34">
+        <v>42947</v>
+      </c>
+      <c r="B108" s="35">
+        <v>11.730038</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="38">
+        <v>42978</v>
+      </c>
+      <c r="B109" s="39">
+        <v>12.756029</v>
+      </c>
+      <c r="C109" s="40"/>
+      <c r="D109" s="41"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="34">
+        <v>43007</v>
+      </c>
+      <c r="B110" s="35">
+        <v>14.050592</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="37"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="38">
+        <v>43039</v>
+      </c>
+      <c r="B111" s="39">
+        <v>15.105696999999999</v>
+      </c>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="34">
+        <v>43069</v>
+      </c>
+      <c r="B112" s="35">
+        <v>14.535258000000001</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="38">
+        <v>43098</v>
+      </c>
+      <c r="B113" s="39">
+        <v>16.399438</v>
+      </c>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="34">
+        <v>43131</v>
+      </c>
+      <c r="B114" s="35">
+        <v>19.042449000000001</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="37"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="38">
+        <v>43159</v>
+      </c>
+      <c r="B115" s="39">
+        <v>18.291117</v>
+      </c>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="34">
+        <v>43189</v>
+      </c>
+      <c r="B116" s="35">
+        <v>17.374656999999999</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="37"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="38">
+        <v>43220</v>
+      </c>
+      <c r="B117" s="39">
+        <v>16.860035</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="41"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="34">
+        <v>43251</v>
+      </c>
+      <c r="B118" s="35">
+        <v>16.177911999999999</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="37"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="38">
+        <v>43280</v>
+      </c>
+      <c r="B119" s="39">
+        <v>14.57497</v>
+      </c>
+      <c r="C119" s="40"/>
+      <c r="D119" s="41"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="34">
+        <v>43312</v>
+      </c>
+      <c r="B120" s="35">
+        <v>16.27308</v>
+      </c>
+      <c r="C120" s="36"/>
+      <c r="D120" s="37"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="38">
+        <v>43343</v>
+      </c>
+      <c r="B121" s="39">
+        <v>16.264430999999998</v>
+      </c>
+      <c r="C121" s="40"/>
+      <c r="D121" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="21.44140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="34">
+        <v>39721</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1.8945289999999999</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="38">
+        <v>39752</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1.1750579999999999</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34">
+        <v>39780</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1.1741509999999999</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="38">
+        <v>39813</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1.2268570000000001</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34">
+        <v>39843</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1.2159709999999999</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38">
+        <v>39871</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1.143167</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34">
+        <v>39903</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1.24491</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38">
+        <v>39933</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1.380606</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34">
+        <v>39962</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1.675646</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="38">
+        <v>39994</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1.682771</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34">
+        <v>40025</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1.7928440000000001</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="38">
+        <v>40056</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1.863165</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34">
+        <v>40086</v>
+      </c>
+      <c r="B14" s="35">
+        <v>2.1104419999999999</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="38">
+        <v>40116</v>
+      </c>
+      <c r="B15" s="39">
+        <v>2.1356310000000001</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34">
+        <v>40147</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2.1364700000000001</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="38">
+        <v>40178</v>
+      </c>
+      <c r="B17" s="39">
+        <v>2.3149440000000001</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
+        <v>40207</v>
+      </c>
+      <c r="B18" s="35">
+        <v>2.3139479999999999</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="38">
+        <v>40235</v>
+      </c>
+      <c r="B19" s="39">
+        <v>2.229152</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34">
+        <v>40268</v>
+      </c>
+      <c r="B20" s="35">
+        <v>2.3926539999999998</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="38">
+        <v>40298</v>
+      </c>
+      <c r="B21" s="39">
+        <v>2.397081</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34">
+        <v>40329</v>
+      </c>
+      <c r="B22" s="35">
+        <v>2.2215220000000002</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="38">
+        <v>40359</v>
+      </c>
+      <c r="B23" s="39">
+        <v>2.209298</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="34">
+        <v>40389</v>
+      </c>
+      <c r="B24" s="35">
+        <v>2.3926859999999999</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="38">
+        <v>40421</v>
+      </c>
+      <c r="B25" s="39">
+        <v>2.312459</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34">
+        <v>40451</v>
+      </c>
+      <c r="B26" s="35">
+        <v>2.6063489999999998</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="38">
+        <v>40480</v>
+      </c>
+      <c r="B27" s="39">
+        <v>2.951838</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34">
+        <v>40512</v>
+      </c>
+      <c r="B28" s="35">
+        <v>3.149413</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="38">
+        <v>40543</v>
+      </c>
+      <c r="B29" s="39">
+        <v>3.3414090000000001</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="34">
+        <v>40574</v>
+      </c>
+      <c r="B30" s="35">
+        <v>3.3606240000000001</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="38">
+        <v>40602</v>
+      </c>
+      <c r="B31" s="39">
+        <v>3.2798729999999998</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="34">
+        <v>40633</v>
+      </c>
+      <c r="B32" s="35">
+        <v>3.2075019999999999</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="38">
+        <v>40662</v>
+      </c>
+      <c r="B33" s="39">
+        <v>3.2324310000000001</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="34">
+        <v>40694</v>
+      </c>
+      <c r="B34" s="35">
+        <v>3.0743149999999999</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="38">
+        <v>40724</v>
+      </c>
+      <c r="B35" s="39">
+        <v>3.1890890000000001</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34">
+        <v>40753</v>
+      </c>
+      <c r="B36" s="35">
+        <v>3.1856089999999999</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="38">
+        <v>40786</v>
+      </c>
+      <c r="B37" s="39">
+        <v>2.8314629999999998</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34">
+        <v>40816</v>
+      </c>
+      <c r="B38" s="35">
+        <v>2.34239</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="38">
+        <v>40847</v>
+      </c>
+      <c r="B39" s="39">
+        <v>2.7748379999999999</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34">
+        <v>40877</v>
+      </c>
+      <c r="B40" s="35">
+        <v>2.4542820000000001</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="38">
+        <v>40907</v>
+      </c>
+      <c r="B41" s="39">
+        <v>2.3544179999999999</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34">
+        <v>40939</v>
+      </c>
+      <c r="B42" s="35">
+        <v>2.6257980000000001</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="38">
+        <v>40968</v>
+      </c>
+      <c r="B43" s="39">
+        <v>2.4717669999999998</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="34">
+        <v>40998</v>
+      </c>
+      <c r="B44" s="35">
+        <v>2.481293</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="38">
+        <v>41029</v>
+      </c>
+      <c r="B45" s="39">
+        <v>2.2077840000000002</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="34">
+        <v>41060</v>
+      </c>
+      <c r="B46" s="35">
+        <v>2.1646450000000002</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="38">
+        <v>41089</v>
+      </c>
+      <c r="B47" s="39">
+        <v>2.2468699999999999</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="34">
+        <v>41121</v>
+      </c>
+      <c r="B48" s="35">
+        <v>2.3346650000000002</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="38">
+        <v>41152</v>
+      </c>
+      <c r="B49" s="39">
+        <v>2.3235039999999998</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34">
+        <v>41180</v>
+      </c>
+      <c r="B50" s="35">
+        <v>2.3541319999999999</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="38">
+        <v>41213</v>
+      </c>
+      <c r="B51" s="39">
+        <v>2.2476379999999998</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="34">
+        <v>41243</v>
+      </c>
+      <c r="B52" s="35">
+        <v>2.3148900000000001</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="38">
+        <v>41274</v>
+      </c>
+      <c r="B53" s="39">
+        <v>2.6994590000000001</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="34">
+        <v>41305</v>
+      </c>
+      <c r="B54" s="35">
+        <v>3.1872180000000001</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="37"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="38">
+        <v>41333</v>
+      </c>
+      <c r="B55" s="39">
+        <v>2.8135490000000001</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="34">
+        <v>41362</v>
+      </c>
+      <c r="B56" s="35">
+        <v>3.0909369999999998</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="38">
+        <v>41394</v>
+      </c>
+      <c r="B57" s="39">
+        <v>3.479276</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="34">
+        <v>41425</v>
+      </c>
+      <c r="B58" s="35">
+        <v>3.1617890000000002</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="38">
+        <v>41453</v>
+      </c>
+      <c r="B59" s="39">
+        <v>2.7229709999999998</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="34">
+        <v>41486</v>
+      </c>
+      <c r="B60" s="35">
+        <v>3.067075</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="38">
+        <v>41516</v>
+      </c>
+      <c r="B61" s="39">
+        <v>3.5970810000000002</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34">
+        <v>41547</v>
+      </c>
+      <c r="B62" s="35">
+        <v>4.2873950000000001</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="38">
+        <v>41578</v>
+      </c>
+      <c r="B63" s="39">
+        <v>4.5701650000000003</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="34">
+        <v>41607</v>
+      </c>
+      <c r="B64" s="35">
+        <v>5.1666619999999996</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="38">
+        <v>41639</v>
+      </c>
+      <c r="B65" s="39">
+        <v>4.8847259999999997</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34">
+        <v>41670</v>
+      </c>
+      <c r="B66" s="35">
+        <v>5.3968629999999997</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="38">
+        <v>41698</v>
+      </c>
+      <c r="B67" s="39">
+        <v>5.1999490000000002</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="34">
+        <v>41729</v>
+      </c>
+      <c r="B68" s="35">
+        <v>5.7867610000000003</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="38">
+        <v>41759</v>
+      </c>
+      <c r="B69" s="39">
+        <v>6.1741450000000002</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="34">
+        <v>41789</v>
+      </c>
+      <c r="B70" s="35">
+        <v>6.8847060000000004</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="38">
+        <v>41820</v>
+      </c>
+      <c r="B71" s="39">
+        <v>7.1101850000000004</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="34">
+        <v>41851</v>
+      </c>
+      <c r="B72" s="35">
+        <v>7.4590480000000001</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="38">
+        <v>41880</v>
+      </c>
+      <c r="B73" s="39">
+        <v>8.5661679999999993</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34">
+        <v>41912</v>
+      </c>
+      <c r="B74" s="35">
+        <v>10.643999000000001</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="38">
+        <v>41943</v>
+      </c>
+      <c r="B75" s="39">
+        <v>9.3401569999999996</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="34">
+        <v>41971</v>
+      </c>
+      <c r="B76" s="35">
+        <v>8.3408180000000005</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="38">
+        <v>42004</v>
+      </c>
+      <c r="B77" s="39">
+        <v>7.3014739999999998</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="41"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="34">
+        <v>42034</v>
+      </c>
+      <c r="B78" s="35">
+        <v>7.4243769999999998</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="37"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="38">
+        <v>42062</v>
+      </c>
+      <c r="B79" s="39">
+        <v>8.2289829999999995</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="34">
+        <v>42094</v>
+      </c>
+      <c r="B80" s="35">
+        <v>9.1348529999999997</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="38">
+        <v>42124</v>
+      </c>
+      <c r="B81" s="39">
+        <v>9.7785440000000001</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="34">
+        <v>42153</v>
+      </c>
+      <c r="B82" s="35">
+        <v>8.7752549999999996</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="38">
+        <v>42185</v>
+      </c>
+      <c r="B83" s="39">
+        <v>9.3895099999999996</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="34">
+        <v>42216</v>
+      </c>
+      <c r="B84" s="35">
+        <v>8.903003</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="38">
+        <v>42247</v>
+      </c>
+      <c r="B85" s="39">
+        <v>8.8095800000000004</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="34">
+        <v>42277</v>
+      </c>
+      <c r="B86" s="35">
+        <v>7.7020939999999998</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="38">
+        <v>42307</v>
+      </c>
+      <c r="B87" s="39">
+        <v>9.6925860000000004</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="34">
+        <v>42338</v>
+      </c>
+      <c r="B88" s="35">
+        <v>10.070962</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="38">
+        <v>42369</v>
+      </c>
+      <c r="B89" s="39">
+        <v>9.2194160000000007</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="41"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="34">
+        <v>42398</v>
+      </c>
+      <c r="B90" s="35">
+        <v>8.9314140000000002</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="38">
+        <v>42429</v>
+      </c>
+      <c r="B91" s="39">
+        <v>10.241593999999999</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="34">
+        <v>42460</v>
+      </c>
+      <c r="B92" s="35">
+        <v>9.8226990000000001</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="38">
+        <v>42489</v>
+      </c>
+      <c r="B93" s="39">
+        <v>10.311491</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="34">
+        <v>42521</v>
+      </c>
+      <c r="B94" s="35">
+        <v>9.5364339999999999</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="38">
+        <v>42551</v>
+      </c>
+      <c r="B95" s="39">
+        <v>10.949611000000001</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="34">
+        <v>42580</v>
+      </c>
+      <c r="B96" s="35">
+        <v>11.529621000000001</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="38">
+        <v>42613</v>
+      </c>
+      <c r="B97" s="39">
+        <v>11.319191</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="34">
+        <v>42643</v>
+      </c>
+      <c r="B98" s="35">
+        <v>12.013506</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="38">
+        <v>42674</v>
+      </c>
+      <c r="B99" s="39">
+        <v>12.691147000000001</v>
+      </c>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="34">
+        <v>42704</v>
+      </c>
+      <c r="B100" s="35">
+        <v>12.419606</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="37"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="38">
+        <v>42734</v>
+      </c>
+      <c r="B101" s="39">
+        <v>12.047164</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="41"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="34">
+        <v>42766</v>
+      </c>
+      <c r="B102" s="35">
+        <v>13.666691999999999</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="38">
+        <v>42794</v>
+      </c>
+      <c r="B103" s="39">
+        <v>13.552713000000001</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="34">
+        <v>42825</v>
+      </c>
+      <c r="B104" s="35">
+        <v>14.44885</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="37"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="38">
+        <v>42853</v>
+      </c>
+      <c r="B105" s="39">
+        <v>14.763652</v>
+      </c>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="34">
+        <v>42886</v>
+      </c>
+      <c r="B106" s="35">
+        <v>15.76126</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="37"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="38">
+        <v>42916</v>
+      </c>
+      <c r="B107" s="39">
+        <v>15.358449999999999</v>
+      </c>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="34">
+        <v>42947</v>
+      </c>
+      <c r="B108" s="35">
+        <v>15.149419</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="38">
+        <v>42978</v>
+      </c>
+      <c r="B109" s="39">
+        <v>16.602902</v>
+      </c>
+      <c r="C109" s="40"/>
+      <c r="D109" s="41"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="34">
+        <v>43007</v>
+      </c>
+      <c r="B110" s="35">
+        <v>18.226565999999998</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="37"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="38">
+        <v>43039</v>
+      </c>
+      <c r="B111" s="39">
+        <v>19.539255000000001</v>
+      </c>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="34">
+        <v>43069</v>
+      </c>
+      <c r="B112" s="35">
+        <v>19.030536000000001</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="38">
+        <v>43098</v>
+      </c>
+      <c r="B113" s="39">
+        <v>21.667954000000002</v>
+      </c>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="34">
+        <v>43131</v>
+      </c>
+      <c r="B114" s="35">
+        <v>25.391293000000001</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="37"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="38">
+        <v>43159</v>
+      </c>
+      <c r="B115" s="39">
+        <v>24.175201000000001</v>
+      </c>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="34">
+        <v>43189</v>
+      </c>
+      <c r="B116" s="35">
+        <v>23.102481999999998</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="37"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="38">
+        <v>43220</v>
+      </c>
+      <c r="B117" s="39">
+        <v>22.702484999999999</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="41"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="34">
+        <v>43251</v>
+      </c>
+      <c r="B118" s="35">
+        <v>21.752814000000001</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="37"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="38">
+        <v>43280</v>
+      </c>
+      <c r="B119" s="39">
+        <v>19.529921000000002</v>
+      </c>
+      <c r="C119" s="40"/>
+      <c r="D119" s="41"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="34">
+        <v>43312</v>
+      </c>
+      <c r="B120" s="35">
+        <v>21.702027999999999</v>
+      </c>
+      <c r="C120" s="36"/>
+      <c r="D120" s="37"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="38">
+        <v>43343</v>
+      </c>
+      <c r="B121" s="39">
+        <v>21.533397999999998</v>
+      </c>
+      <c r="C121" s="40"/>
+      <c r="D121" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="34">
+        <v>39721</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1.2100280000000001</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="38">
+        <v>39752</v>
+      </c>
+      <c r="B3" s="39">
+        <v>0.77277799999999996</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34">
+        <v>39780</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.75748899999999997</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="38">
+        <v>39813</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0.796014</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34">
+        <v>39843</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.78701699999999997</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38">
+        <v>39871</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0.75200299999999998</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34">
+        <v>39903</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0.81414500000000001</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38">
+        <v>39933</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0.89030600000000004</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34">
+        <v>39962</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1.063321</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="38">
+        <v>39994</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1.1253569999999999</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34">
+        <v>40025</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1.203989</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="38">
+        <v>40056</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1.2997209999999999</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34">
+        <v>40086</v>
+      </c>
+      <c r="B14" s="35">
+        <v>1.4771000000000001</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="38">
+        <v>40116</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1.533153</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34">
+        <v>40147</v>
+      </c>
+      <c r="B16" s="35">
+        <v>1.5377799999999999</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4" ht="27.6">
+      <c r="A17" s="38">
+        <v>40178</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1.6769229999999999</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
+        <v>40207</v>
+      </c>
+      <c r="B18" s="35">
+        <v>1.6629510000000001</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="38">
+        <v>40235</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1.6152770000000001</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34">
+        <v>40268</v>
+      </c>
+      <c r="B20" s="35">
+        <v>1.7377750000000001</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="38">
+        <v>40298</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1.778966</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34">
+        <v>40329</v>
+      </c>
+      <c r="B22" s="35">
+        <v>1.6567909999999999</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="38">
+        <v>40359</v>
+      </c>
+      <c r="B23" s="39">
+        <v>1.6687749999999999</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="34">
+        <v>40389</v>
+      </c>
+      <c r="B24" s="35">
+        <v>1.798753</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="38">
+        <v>40421</v>
+      </c>
+      <c r="B25" s="39">
+        <v>1.80179</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34">
+        <v>40451</v>
+      </c>
+      <c r="B26" s="35">
+        <v>2.0097990000000001</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="38">
+        <v>40480</v>
+      </c>
+      <c r="B27" s="39">
+        <v>2.2676029999999998</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34">
+        <v>40512</v>
+      </c>
+      <c r="B28" s="35">
+        <v>2.4409930000000002</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4" ht="27.6">
+      <c r="A29" s="38">
+        <v>40543</v>
+      </c>
+      <c r="B29" s="39">
+        <v>2.5856170000000001</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="34">
+        <v>40574</v>
+      </c>
+      <c r="B30" s="35">
+        <v>2.62262</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="38">
+        <v>40602</v>
+      </c>
+      <c r="B31" s="39">
+        <v>2.5115699999999999</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="34">
+        <v>40633</v>
+      </c>
+      <c r="B32" s="35">
+        <v>2.4441280000000001</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="38">
+        <v>40662</v>
+      </c>
+      <c r="B33" s="39">
+        <v>2.452305</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="34">
+        <v>40694</v>
+      </c>
+      <c r="B34" s="35">
+        <v>2.3661460000000001</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="38">
+        <v>40724</v>
+      </c>
+      <c r="B35" s="39">
+        <v>2.4231020000000001</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34">
+        <v>40753</v>
+      </c>
+      <c r="B36" s="35">
+        <v>2.4052150000000001</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="38">
+        <v>40786</v>
+      </c>
+      <c r="B37" s="39">
+        <v>2.1670199999999999</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34">
+        <v>40816</v>
+      </c>
+      <c r="B38" s="35">
+        <v>1.853534</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="38">
+        <v>40847</v>
+      </c>
+      <c r="B39" s="39">
+        <v>2.1324160000000001</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34">
+        <v>40877</v>
+      </c>
+      <c r="B40" s="35">
+        <v>1.9125259999999999</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="1:4" ht="27.6">
+      <c r="A41" s="38">
+        <v>40907</v>
+      </c>
+      <c r="B41" s="39">
+        <v>1.848158</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34">
+        <v>40939</v>
+      </c>
+      <c r="B42" s="35">
+        <v>2.0488729999999999</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="38">
+        <v>40968</v>
+      </c>
+      <c r="B43" s="39">
+        <v>1.9567369999999999</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="34">
+        <v>40998</v>
+      </c>
+      <c r="B44" s="35">
+        <v>1.9866269999999999</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4" ht="27.6">
+      <c r="A45" s="38">
+        <v>41029</v>
+      </c>
+      <c r="B45" s="39">
+        <v>1.778491</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="34">
+        <v>41060</v>
+      </c>
+      <c r="B46" s="35">
+        <v>1.7564070000000001</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="38">
+        <v>41089</v>
+      </c>
+      <c r="B47" s="39">
+        <v>1.836932</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="34">
+        <v>41121</v>
+      </c>
+      <c r="B48" s="35">
+        <v>1.881543</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="38">
+        <v>41152</v>
+      </c>
+      <c r="B49" s="39">
+        <v>1.884258</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34">
+        <v>41180</v>
+      </c>
+      <c r="B50" s="35">
+        <v>1.899024</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="38">
+        <v>41213</v>
+      </c>
+      <c r="B51" s="39">
+        <v>1.8248059999999999</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="34">
+        <v>41243</v>
+      </c>
+      <c r="B52" s="35">
+        <v>1.9172210000000001</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="38">
+        <v>41274</v>
+      </c>
+      <c r="B53" s="39">
+        <v>2.2159010000000001</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="1:4" ht="27.6">
+      <c r="A54" s="34">
+        <v>41305</v>
+      </c>
+      <c r="B54" s="35">
+        <v>2.6475059999999999</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="37"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="38">
+        <v>41333</v>
+      </c>
+      <c r="B55" s="39">
+        <v>2.3414510000000002</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:4" ht="27.6">
+      <c r="A56" s="34">
+        <v>41362</v>
+      </c>
+      <c r="B56" s="35">
+        <v>2.5976439999999998</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="38">
+        <v>41394</v>
+      </c>
+      <c r="B57" s="39">
+        <v>2.9687570000000001</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="34">
+        <v>41425</v>
+      </c>
+      <c r="B58" s="35">
+        <v>2.7076380000000002</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="38">
+        <v>41453</v>
+      </c>
+      <c r="B59" s="39">
+        <v>2.3348689999999999</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="34">
+        <v>41486</v>
+      </c>
+      <c r="B60" s="35">
+        <v>2.6231249999999999</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="38">
+        <v>41516</v>
+      </c>
+      <c r="B61" s="39">
+        <v>3.0874510000000002</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34">
+        <v>41547</v>
+      </c>
+      <c r="B62" s="35">
+        <v>3.6996720000000001</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="38">
+        <v>41578</v>
+      </c>
+      <c r="B63" s="39">
+        <v>3.9738769999999999</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="34">
+        <v>41607</v>
+      </c>
+      <c r="B64" s="35">
+        <v>4.3834569999999999</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+    </row>
+    <row r="65" spans="1:4" ht="27.6">
+      <c r="A65" s="38">
+        <v>41639</v>
+      </c>
+      <c r="B65" s="39">
+        <v>4.1352460000000004</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34">
+        <v>41670</v>
+      </c>
+      <c r="B66" s="35">
+        <v>4.5978289999999999</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="38">
+        <v>41698</v>
+      </c>
+      <c r="B67" s="39">
+        <v>4.3839269999999999</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="34">
+        <v>41729</v>
+      </c>
+      <c r="B68" s="35">
+        <v>4.8586609999999997</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="38">
+        <v>41759</v>
+      </c>
+      <c r="B69" s="39">
+        <v>5.1402359999999998</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="34">
+        <v>41789</v>
+      </c>
+      <c r="B70" s="35">
+        <v>5.7689880000000002</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="38">
+        <v>41820</v>
+      </c>
+      <c r="B71" s="39">
+        <v>5.9171800000000001</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="34">
+        <v>41851</v>
+      </c>
+      <c r="B72" s="35">
+        <v>6.1328500000000004</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="38">
+        <v>41880</v>
+      </c>
+      <c r="B73" s="39">
+        <v>7.2148940000000001</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34">
+        <v>41912</v>
+      </c>
+      <c r="B74" s="35">
+        <v>9.1474130000000002</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="38">
+        <v>41943</v>
+      </c>
+      <c r="B75" s="39">
+        <v>8.0981190000000005</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="34">
+        <v>41971</v>
+      </c>
+      <c r="B76" s="35">
+        <v>7.1789709999999998</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+    </row>
+    <row r="77" spans="1:4" ht="27.6">
+      <c r="A77" s="38">
+        <v>42004</v>
+      </c>
+      <c r="B77" s="39">
+        <v>6.237997</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="41"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="34">
+        <v>42034</v>
+      </c>
+      <c r="B78" s="35">
+        <v>6.2557130000000001</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="37"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="38">
+        <v>42062</v>
+      </c>
+      <c r="B79" s="39">
+        <v>7.0200570000000004</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="34">
+        <v>42094</v>
+      </c>
+      <c r="B80" s="35">
+        <v>7.7904239999999998</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="38">
+        <v>42124</v>
+      </c>
+      <c r="B81" s="39">
+        <v>8.1465219999999992</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="34">
+        <v>42153</v>
+      </c>
+      <c r="B82" s="35">
+        <v>7.360563</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="38">
+        <v>42185</v>
+      </c>
+      <c r="B83" s="39">
+        <v>7.7769880000000002</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="34">
+        <v>42216</v>
+      </c>
+      <c r="B84" s="35">
+        <v>7.2736000000000001</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="38">
+        <v>42247</v>
+      </c>
+      <c r="B85" s="39">
+        <v>7.2676889999999998</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="34">
+        <v>42277</v>
+      </c>
+      <c r="B86" s="35">
+        <v>6.4603359999999999</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="38">
+        <v>42307</v>
+      </c>
+      <c r="B87" s="39">
+        <v>8.301698</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="34">
+        <v>42338</v>
+      </c>
+      <c r="B88" s="35">
+        <v>8.5585760000000004</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+    </row>
+    <row r="89" spans="1:4" ht="27.6">
+      <c r="A89" s="38">
+        <v>42369</v>
+      </c>
+      <c r="B89" s="39">
+        <v>7.8239179999999999</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="41"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="34">
+        <v>42398</v>
+      </c>
+      <c r="B90" s="35">
+        <v>7.7533599999999998</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="38">
+        <v>42429</v>
+      </c>
+      <c r="B91" s="39">
+        <v>8.9996460000000003</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="34">
+        <v>42460</v>
+      </c>
+      <c r="B92" s="35">
+        <v>8.3709480000000003</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="38">
+        <v>42489</v>
+      </c>
+      <c r="B93" s="39">
+        <v>8.5762520000000002</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="34">
+        <v>42521</v>
+      </c>
+      <c r="B94" s="35">
+        <v>8.1244669999999992</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="38">
+        <v>42551</v>
+      </c>
+      <c r="B95" s="39">
+        <v>9.3783609999999999</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="34">
+        <v>42580</v>
+      </c>
+      <c r="B96" s="35">
+        <v>9.7601809999999993</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="38">
+        <v>42613</v>
+      </c>
+      <c r="B97" s="39">
+        <v>9.6263500000000004</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="34">
+        <v>42643</v>
+      </c>
+      <c r="B98" s="35">
+        <v>10.280540999999999</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="38">
+        <v>42674</v>
+      </c>
+      <c r="B99" s="39">
+        <v>10.795318999999999</v>
+      </c>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="34">
+        <v>42704</v>
+      </c>
+      <c r="B100" s="35">
+        <v>10.690272999999999</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="37"/>
+    </row>
+    <row r="101" spans="1:4" ht="27.6">
+      <c r="A101" s="38">
+        <v>42734</v>
+      </c>
+      <c r="B101" s="39">
+        <v>10.241649000000001</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="41"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="34">
+        <v>42766</v>
+      </c>
+      <c r="B102" s="35">
+        <v>11.521609</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
+    </row>
+    <row r="103" spans="1:4" ht="27.6">
+      <c r="A103" s="38">
+        <v>42794</v>
+      </c>
+      <c r="B103" s="39">
+        <v>11.471773000000001</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="34">
+        <v>42825</v>
+      </c>
+      <c r="B104" s="35">
+        <v>12.128663</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="37"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="38">
+        <v>42853</v>
+      </c>
+      <c r="B105" s="39">
+        <v>12.555325</v>
+      </c>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="34">
+        <v>42886</v>
+      </c>
+      <c r="B106" s="35">
+        <v>13.308292</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="37"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="38">
+        <v>42916</v>
+      </c>
+      <c r="B107" s="39">
+        <v>13.088823</v>
+      </c>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="34">
+        <v>42947</v>
+      </c>
+      <c r="B108" s="35">
+        <v>12.84539</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="38">
+        <v>42978</v>
+      </c>
+      <c r="B109" s="39">
+        <v>13.977268</v>
+      </c>
+      <c r="C109" s="40"/>
+      <c r="D109" s="41"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="34">
+        <v>43007</v>
+      </c>
+      <c r="B110" s="35">
+        <v>15.404353</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="37"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="38">
+        <v>43039</v>
+      </c>
+      <c r="B111" s="39">
+        <v>16.571300999999998</v>
+      </c>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="34">
+        <v>43069</v>
+      </c>
+      <c r="B112" s="35">
+        <v>15.954717</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="38">
+        <v>43098</v>
+      </c>
+      <c r="B113" s="39">
+        <v>18.010987</v>
+      </c>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="34">
+        <v>43131</v>
+      </c>
+      <c r="B114" s="35">
+        <v>20.926995000000002</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="37"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="38">
+        <v>43159</v>
+      </c>
+      <c r="B115" s="39">
+        <v>20.112127999999998</v>
+      </c>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41"/>
+    </row>
+    <row r="116" spans="1:4" ht="27.6">
+      <c r="A116" s="34">
+        <v>43189</v>
+      </c>
+      <c r="B116" s="35">
+        <v>19.114715</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="37"/>
+    </row>
+    <row r="117" spans="1:4" ht="27.6">
+      <c r="A117" s="38">
+        <v>43220</v>
+      </c>
+      <c r="B117" s="39">
+        <v>18.559260999999999</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="41"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="34">
+        <v>43251</v>
+      </c>
+      <c r="B118" s="35">
+        <v>17.820043999999999</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="37"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="38">
+        <v>43280</v>
+      </c>
+      <c r="B119" s="39">
+        <v>16.063347</v>
+      </c>
+      <c r="C119" s="40"/>
+      <c r="D119" s="41"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="34">
+        <v>43312</v>
+      </c>
+      <c r="B120" s="35">
+        <v>17.945905</v>
+      </c>
+      <c r="C120" s="36"/>
+      <c r="D120" s="37"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="38">
+        <v>43343</v>
+      </c>
+      <c r="B121" s="39">
+        <v>17.947067000000001</v>
+      </c>
+      <c r="C121" s="40"/>
+      <c r="D121" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="43">
+        <v>42247</v>
+      </c>
+      <c r="B2" s="44">
+        <v>8.1775000000000007E-3</v>
+      </c>
+      <c r="C2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43">
+        <v>42277</v>
+      </c>
+      <c r="B3" s="44">
+        <v>7.6175000000000001E-3</v>
+      </c>
+      <c r="C3" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="43">
+        <v>42307</v>
+      </c>
+      <c r="B4" s="44">
+        <v>7.5908333333333331E-3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="43">
+        <v>42338</v>
+      </c>
+      <c r="B5" s="44">
+        <v>7.559999999999999E-3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="43">
+        <v>42368</v>
+      </c>
+      <c r="B6" s="44">
+        <v>6.9533333333333322E-3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="43">
+        <v>42398</v>
+      </c>
+      <c r="B7" s="44">
+        <v>7.0291666666666671E-3</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="43">
+        <v>42429</v>
+      </c>
+      <c r="B8" s="44">
+        <v>6.4466666666666665E-3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="43">
+        <v>42460</v>
+      </c>
+      <c r="B9" s="44">
+        <v>7.0158333333333331E-3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="43">
+        <v>42489</v>
+      </c>
+      <c r="B10" s="44">
+        <v>6.2824999999999999E-3</v>
+      </c>
+      <c r="C10" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="43">
+        <v>42521</v>
+      </c>
+      <c r="B11" s="44">
+        <v>6.7350000000000014E-3</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="43">
+        <v>42551</v>
+      </c>
+      <c r="B12" s="44">
+        <v>5.7900000000000009E-3</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="43">
+        <v>42580</v>
+      </c>
+      <c r="B13" s="44">
+        <v>6.2900000000000005E-3</v>
+      </c>
+      <c r="C13" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="43">
+        <v>42613</v>
+      </c>
+      <c r="B14" s="44">
+        <v>5.4891666666666665E-3</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="43">
+        <v>42643</v>
+      </c>
+      <c r="B15" s="44">
+        <v>5.5383333333333326E-3</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="43">
+        <v>42674</v>
+      </c>
+      <c r="B16" s="44">
+        <v>5.9250000000000006E-3</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="43">
+        <v>42704</v>
+      </c>
+      <c r="B17" s="44">
+        <v>6.9491666666666677E-3</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="43">
+        <v>42734</v>
+      </c>
+      <c r="B18" s="44">
+        <v>6.2266666666666668E-3</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="43">
+        <v>42766</v>
+      </c>
+      <c r="B19" s="44">
+        <v>6.3283333333333334E-3</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="43">
+        <v>42790</v>
+      </c>
+      <c r="B20" s="44">
+        <v>6.2933333333333331E-3</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="43">
+        <v>42825</v>
+      </c>
+      <c r="B21" s="44">
+        <v>6.3941666666666661E-3</v>
+      </c>
+      <c r="C21" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="43">
+        <v>42853</v>
+      </c>
+      <c r="B22" s="44">
+        <v>6.0074999999999998E-3</v>
+      </c>
+      <c r="C22" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="43">
+        <v>42886</v>
+      </c>
+      <c r="B23" s="44">
+        <v>5.9575000000000001E-3</v>
+      </c>
+      <c r="C23" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="43">
+        <v>42916</v>
+      </c>
+      <c r="B24" s="44">
+        <v>5.6125000000000003E-3</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="43">
+        <v>42947</v>
+      </c>
+      <c r="B25" s="44">
+        <v>6.0999999999999995E-3</v>
+      </c>
+      <c r="C25" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="43">
+        <v>42978</v>
+      </c>
+      <c r="B26" s="44">
+        <v>5.3900000000000007E-3</v>
+      </c>
+      <c r="C26" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="43">
+        <v>43007</v>
+      </c>
+      <c r="B27" s="44">
+        <v>5.550833333333333E-3</v>
+      </c>
+      <c r="C27" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="43">
+        <v>43039</v>
+      </c>
+      <c r="B28" s="44">
+        <v>5.3425E-3</v>
+      </c>
+      <c r="C28" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="43">
+        <v>43069</v>
+      </c>
+      <c r="B29" s="44">
+        <v>5.5641666666666669E-3</v>
+      </c>
+      <c r="C29" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="43">
+        <v>43098</v>
+      </c>
+      <c r="B30" s="44">
+        <v>5.416666666666666E-3</v>
+      </c>
+      <c r="C30" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="43">
+        <v>43131</v>
+      </c>
+      <c r="B31" s="44">
+        <v>5.5383333333333326E-3</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="43">
+        <v>43159</v>
+      </c>
+      <c r="B32" s="44">
+        <v>6.0041666666666672E-3</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="43">
+        <v>43187</v>
+      </c>
+      <c r="B33" s="44">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="C33" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="43">
+        <v>43217</v>
+      </c>
+      <c r="B34" s="44">
+        <v>6.398333333333334E-3</v>
+      </c>
+      <c r="C34" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="43">
+        <v>43251</v>
+      </c>
+      <c r="B35" s="44">
+        <v>7.1791666666666662E-3</v>
+      </c>
+      <c r="C35" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="43">
+        <v>43280</v>
+      </c>
+      <c r="B36" s="44">
+        <v>7.4683333333333338E-3</v>
+      </c>
+      <c r="C36" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="43">
+        <v>43312</v>
+      </c>
+      <c r="B37" s="44">
+        <v>7.5233333333333341E-3</v>
+      </c>
+      <c r="C37" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="43">
+        <v>43343</v>
+      </c>
+      <c r="B38" s="44">
+        <v>9.5358333333333337E-3</v>
+      </c>
+      <c r="C38" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="32" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
+      <c r="A2" s="45">
+        <v>42277</v>
+      </c>
+      <c r="B2" s="32">
+        <v>2.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
+      <c r="A3" s="45">
+        <v>42307</v>
+      </c>
+      <c r="B3" s="32">
+        <v>2.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
+      <c r="A4" s="45">
+        <v>42338</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="A5" s="45">
+        <v>42369</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="45">
+        <v>42398</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2.5624999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="A7" s="46">
+        <v>42429</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2.5958333333333333E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
+      <c r="A8" s="45">
+        <v>42460</v>
+      </c>
+      <c r="B8" s="32">
+        <v>3.1666666666666662E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1">
+      <c r="A9" s="46">
+        <v>42489</v>
+      </c>
+      <c r="B9" s="32">
+        <v>3.1666666666666662E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1">
+      <c r="A10" s="45">
+        <v>42521</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2.9374999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1">
+      <c r="A11" s="45">
+        <v>42551</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2.5624999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="A12" s="45">
+        <v>42580</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2.5208333333333336E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="A13" s="45">
+        <v>42613</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2.3541666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1">
+      <c r="A14" s="45">
+        <v>42643</v>
+      </c>
+      <c r="B14" s="32">
+        <v>2.2291666666666664E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="A15" s="45">
+        <v>42674</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2.2291666666666664E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="A16" s="46">
+        <v>42704</v>
+      </c>
+      <c r="B16" s="32">
+        <v>2.0625000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="46">
+        <v>42734</v>
+      </c>
+      <c r="B17" s="32">
+        <v>2.0625000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="46">
+        <v>42766</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1.9333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="46">
+        <v>42790</v>
+      </c>
+      <c r="B19" s="32">
+        <v>1.8958333333333334E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="46">
+        <v>42825</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1.8541666666666668E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="46">
+        <v>42853</v>
+      </c>
+      <c r="B21" s="32">
+        <v>2.0208333333333335E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
+      <c r="A22" s="45">
+        <v>42886</v>
+      </c>
+      <c r="B22" s="32">
+        <v>2.1250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
+      <c r="A23" s="46">
+        <v>42916</v>
+      </c>
+      <c r="B23" s="32">
+        <v>2.1250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
+      <c r="A24" s="45">
+        <v>42947</v>
+      </c>
+      <c r="B24" s="32">
+        <v>2.2083333333333333E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1">
+      <c r="A25" s="45">
+        <v>42978</v>
+      </c>
+      <c r="B25" s="32">
+        <v>2.2083333333333333E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1">
+      <c r="A26" s="46">
+        <v>43007</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2.2083333333333333E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1">
+      <c r="A27" s="45">
+        <v>43039</v>
+      </c>
+      <c r="B27" s="32">
+        <v>2.2083333333333333E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1">
+      <c r="A28" s="45">
+        <v>43069</v>
+      </c>
+      <c r="B28" s="32">
+        <v>2.3958333333333335E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1">
+      <c r="A29" s="46">
+        <v>43098</v>
+      </c>
+      <c r="B29" s="32">
+        <v>2.3958333333333335E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1">
+      <c r="A30" s="46">
+        <v>43131</v>
+      </c>
+      <c r="B30" s="32">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1">
+      <c r="A31" s="46">
+        <v>43159</v>
+      </c>
+      <c r="B31" s="32">
+        <v>2.2291666666666664E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1">
+      <c r="A32" s="46">
+        <v>43187</v>
+      </c>
+      <c r="B32" s="32">
+        <v>2.2083333333333333E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1">
+      <c r="A33" s="45">
+        <v>43217</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2.1916666666666668E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1">
+      <c r="A34" s="46">
+        <v>43251</v>
+      </c>
+      <c r="B34" s="32">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1">
+      <c r="A35" s="46">
+        <v>43280</v>
+      </c>
+      <c r="B35" s="32">
+        <v>3.9166666666666662E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1">
+      <c r="A36" s="45">
+        <v>43312</v>
+      </c>
+      <c r="B36" s="32">
+        <v>3.875E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1">
+      <c r="A37" s="45">
+        <v>43343</v>
+      </c>
+      <c r="B37" s="32">
+        <v>3.7533333333333335E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18005,9 +23126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
